--- a/Result/Facebook_pod_a/Fault/MLU_FIGRET0.1.xlsx
+++ b/Result/Facebook_pod_a/Fault/MLU_FIGRET0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sjtu\Fault\Result\Facebook_pod_a\Fault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF681C3E-6FBD-4792-8578-3FEECC25D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB28C4-B202-499A-99B8-C5F745BF38AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$2496</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$2:$C$2496</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2:$A$2496</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$2496</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$2496</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$2496</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$A$2496</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$2496</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -157,17 +147,12 @@
         <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{74C17CF6-B00A-455C-928E-5FC49340D382}">
+        <cx:series layoutId="boxWhisker" uniqueId="{74C17CF6-B00A-455C-928E-5FC49340D382}" formatIdx="0">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.0</cx:f>
@@ -180,7 +165,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3B5C09F4-47D2-4A26-A2D1-305603C884AE}">
+        <cx:series layoutId="boxWhisker" uniqueId="{3B5C09F4-47D2-4A26-A2D1-305603C884AE}" formatIdx="1">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.2</cx:f>
@@ -188,19 +173,6 @@
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{668163CE-29F1-41DE-9021-0A87A41CE03C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>最大链路利用率-figret0,5</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
@@ -1146,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
